--- a/23mar.xlsx
+++ b/23mar.xlsx
@@ -580,12 +580,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars011</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>dZt4hUMP</t>
         </is>
       </c>
     </row>
@@ -607,12 +607,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars012</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>B8DkBRvy</t>
         </is>
       </c>
     </row>
@@ -634,12 +634,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars013</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>pkWmaLLd</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars014</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>MNeARfkL</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars015</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>d6Eamd3s</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars016</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>vFbV8XjR</t>
         </is>
       </c>
     </row>
@@ -742,12 +742,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars017</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>MHzkznW7</t>
         </is>
       </c>
     </row>
@@ -769,12 +769,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars018</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>ySsLLFUC</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars019</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Ayr82tqn</t>
         </is>
       </c>
     </row>
@@ -823,12 +823,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars020</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>5fCaqTNC</t>
         </is>
       </c>
     </row>
@@ -850,12 +850,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars021</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>2D8Fmnpd</t>
         </is>
       </c>
     </row>
@@ -877,12 +877,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars022</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>pWJc6VtE</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars023</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>8WrgaQcf</t>
         </is>
       </c>
     </row>
@@ -931,12 +931,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars024</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>aE3DX82W</t>
         </is>
       </c>
     </row>
@@ -958,12 +958,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars025</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>kuyBPCgn</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars026</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>jhJBpaVU</t>
         </is>
       </c>
     </row>
@@ -1012,12 +1012,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars027</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>7BGU8zXU</t>
         </is>
       </c>
     </row>
@@ -1039,12 +1039,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars028</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>F8hdK9MD</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars029</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>27fmFmEs</t>
         </is>
       </c>
     </row>
@@ -1093,12 +1093,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars030</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>tk34Bxbz</t>
         </is>
       </c>
     </row>
@@ -1120,12 +1120,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars031</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>TV7cdkRA</t>
         </is>
       </c>
     </row>
@@ -1147,12 +1147,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars032</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>hPjvm3Cy</t>
         </is>
       </c>
     </row>
@@ -1174,12 +1174,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars033</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>cRm48Efs</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars034</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>n4vtyXUb</t>
         </is>
       </c>
     </row>
@@ -1228,12 +1228,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars035</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>SUTsbXV3</t>
         </is>
       </c>
     </row>
@@ -1255,12 +1255,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars036</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>aesFKPgB</t>
         </is>
       </c>
     </row>
@@ -1282,12 +1282,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars037</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>jvfEyMnu</t>
         </is>
       </c>
     </row>
@@ -1309,12 +1309,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars038</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>RPKU96mx</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1336,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars039</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>2AypcAmh</t>
         </is>
       </c>
     </row>
@@ -1363,12 +1363,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars040</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>TutrLeEQ</t>
         </is>
       </c>
     </row>
@@ -1390,12 +1390,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars041</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>MJ2dbYzm</t>
         </is>
       </c>
     </row>
@@ -1417,12 +1417,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars042</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>uqb6CCVa</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars043</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>UWdMgLrE</t>
         </is>
       </c>
     </row>
@@ -1471,12 +1471,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars044</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>bYPKLxB6</t>
         </is>
       </c>
     </row>
@@ -1498,12 +1498,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars045</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Gv7ZdBKx</t>
         </is>
       </c>
     </row>
@@ -1525,12 +1525,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars046</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>RDFAbUmp</t>
         </is>
       </c>
     </row>
@@ -1552,12 +1552,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars047</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>3DzngT4h</t>
         </is>
       </c>
     </row>
@@ -1579,12 +1579,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars048</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>QxFQ9a2M</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars049</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>KWxzZs9W</t>
         </is>
       </c>
     </row>
@@ -1633,12 +1633,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars050</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>7gZawJv3</t>
         </is>
       </c>
     </row>
@@ -1660,12 +1660,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars051</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>mNkmkauW</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars052</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>U5VkXudD</t>
         </is>
       </c>
     </row>
@@ -1714,12 +1714,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars053</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>PHuHfjD4</t>
         </is>
       </c>
     </row>
@@ -1741,12 +1741,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars054</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>CLpLdruM</t>
         </is>
       </c>
     </row>
@@ -1768,12 +1768,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars055</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Gf2qAfAh</t>
         </is>
       </c>
     </row>
@@ -1795,12 +1795,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars056</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>q7tHAb49</t>
         </is>
       </c>
     </row>
@@ -1822,12 +1822,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars057</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>85pZay9s</t>
         </is>
       </c>
     </row>
@@ -1849,12 +1849,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars058</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>mnqMTcvf</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars059</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>75Jpm5kj</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars060</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>nJfr76PE</t>
         </is>
       </c>
     </row>
@@ -1930,12 +1930,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars061</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>fXVRa2L9</t>
         </is>
       </c>
     </row>
@@ -1957,12 +1957,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars062</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>AGGLAye3</t>
         </is>
       </c>
     </row>
@@ -1984,12 +1984,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars063</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Jz3nAzM3</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2011,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars064</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>BbkcQm2R</t>
         </is>
       </c>
     </row>
@@ -2038,12 +2038,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars065</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>ry3Mt99m</t>
         </is>
       </c>
     </row>
@@ -2065,12 +2065,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars066</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>fEJvamLc</t>
         </is>
       </c>
     </row>
@@ -2092,12 +2092,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars067</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>S6JExmGb</t>
         </is>
       </c>
     </row>
@@ -2119,12 +2119,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars068</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>YLbjfPrW</t>
         </is>
       </c>
     </row>
@@ -2146,12 +2146,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars069</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>GYtEgzwL</t>
         </is>
       </c>
     </row>
@@ -2173,12 +2173,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars070</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>n7JTNFG2</t>
         </is>
       </c>
     </row>
@@ -2200,12 +2200,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars071</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>hwRxuZYV</t>
         </is>
       </c>
     </row>
@@ -2227,12 +2227,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars072</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>SNP8vCD4</t>
         </is>
       </c>
     </row>
@@ -2254,12 +2254,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars073</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>EqNYjtMM</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars074</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Dduk5s44</t>
         </is>
       </c>
     </row>
@@ -2308,12 +2308,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars075</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>naHcPAQe</t>
         </is>
       </c>
     </row>
@@ -2335,12 +2335,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars076</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>ACFcGVEQ</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars077</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>DURHUQ98</t>
         </is>
       </c>
     </row>
@@ -2389,12 +2389,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars078</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>HnZwCXSd</t>
         </is>
       </c>
     </row>
@@ -2416,12 +2416,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars079</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>kAqrYuBb</t>
         </is>
       </c>
     </row>
@@ -2443,12 +2443,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars080</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>MpukdM94</t>
         </is>
       </c>
     </row>
@@ -2470,12 +2470,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars081</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>fgXVrWZv</t>
         </is>
       </c>
     </row>
@@ -2497,12 +2497,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars082</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>m4sX8Gzy</t>
         </is>
       </c>
     </row>
@@ -2524,12 +2524,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars083</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>LFsBuS7e</t>
         </is>
       </c>
     </row>
@@ -2551,12 +2551,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars084</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>vykqWLyK</t>
         </is>
       </c>
     </row>
@@ -2578,12 +2578,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars085</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>xSQ7z6e6</t>
         </is>
       </c>
     </row>
@@ -2605,12 +2605,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars086</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>8Spv5SZK</t>
         </is>
       </c>
     </row>
@@ -2632,12 +2632,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars087</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>GYEBstAG</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2659,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars088</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>jSpGK9By</t>
         </is>
       </c>
     </row>
@@ -2686,12 +2686,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars089</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>6XHrJBgv</t>
         </is>
       </c>
     </row>
@@ -2713,12 +2713,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars090</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>GdueqzfN</t>
         </is>
       </c>
     </row>
@@ -2740,12 +2740,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars091</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>wBqkQar3</t>
         </is>
       </c>
     </row>
@@ -2767,12 +2767,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars092</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Kj9WKuPV</t>
         </is>
       </c>
     </row>
@@ -2794,12 +2794,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars093</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>qHWgtPqj</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars094</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>HDjWRcy4</t>
         </is>
       </c>
     </row>
@@ -2848,12 +2848,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars095</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Zm7JjMYP</t>
         </is>
       </c>
     </row>
@@ -2875,12 +2875,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars096</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>RCPNP9zE</t>
         </is>
       </c>
     </row>
@@ -2902,12 +2902,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars097</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>XH4hSynG</t>
         </is>
       </c>
     </row>
@@ -2929,12 +2929,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars098</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>rMZRUNFr</t>
         </is>
       </c>
     </row>
@@ -2956,12 +2956,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars099</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>xxLeke53</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars100</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>cGbGpK3Z</t>
         </is>
       </c>
     </row>
@@ -3010,12 +3010,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars101</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>CkgfMJKk</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars102</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>gpguYN9f</t>
         </is>
       </c>
     </row>
@@ -3064,12 +3064,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars103</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>F9vHCnTV</t>
         </is>
       </c>
     </row>
@@ -3091,12 +3091,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars104</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>h9uTczd3</t>
         </is>
       </c>
     </row>
@@ -3118,12 +3118,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars105</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>djyyWYxZ</t>
         </is>
       </c>
     </row>
@@ -3145,12 +3145,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars106</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>ZEQRzGDj</t>
         </is>
       </c>
     </row>
@@ -3172,12 +3172,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars107</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>zbrtzbE2</t>
         </is>
       </c>
     </row>
@@ -3199,12 +3199,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars108</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>4rpwATKJ</t>
         </is>
       </c>
     </row>
@@ -3226,12 +3226,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars109</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>XSBxEXFv</t>
         </is>
       </c>
     </row>
@@ -3253,12 +3253,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars110</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>448A37Kw</t>
         </is>
       </c>
     </row>
@@ -3280,12 +3280,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars111</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>VrJgsFur</t>
         </is>
       </c>
     </row>
@@ -3307,12 +3307,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars112</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>aQzNuVd8</t>
         </is>
       </c>
     </row>
@@ -3334,12 +3334,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars113</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>M8HhRug3</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars114</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>x2xdLgks</t>
         </is>
       </c>
     </row>
@@ -3388,12 +3388,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars115</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>U3hvnzYR</t>
         </is>
       </c>
     </row>
@@ -3415,12 +3415,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars116</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>F3pG9q6d</t>
         </is>
       </c>
     </row>
@@ -3442,12 +3442,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars117</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>dRu4PARk</t>
         </is>
       </c>
     </row>
@@ -3469,12 +3469,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars118</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>gSJyQZ5p</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars119</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>a4zUn5eF</t>
         </is>
       </c>
     </row>
@@ -3523,12 +3523,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars120</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>yMbuqeBP</t>
         </is>
       </c>
     </row>
@@ -3550,12 +3550,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars121</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>ty2tRmUf</t>
         </is>
       </c>
     </row>
@@ -3577,12 +3577,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars122</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Mt8LaBU9</t>
         </is>
       </c>
     </row>
@@ -3604,12 +3604,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars123</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>ancAySL5</t>
         </is>
       </c>
     </row>
@@ -3631,12 +3631,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars124</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>ja3rs6Va</t>
         </is>
       </c>
     </row>
@@ -3658,12 +3658,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars125</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>tySuwqem</t>
         </is>
       </c>
     </row>
@@ -3685,12 +3685,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars126</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>qjJMYm52</t>
         </is>
       </c>
     </row>
@@ -3712,12 +3712,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars127</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>97aawYxv</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars128</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>wBKHBEVe</t>
         </is>
       </c>
     </row>
@@ -3766,12 +3766,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars129</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>ByymaVLg</t>
         </is>
       </c>
     </row>
@@ -3793,12 +3793,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars130</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>7EZ65jn6</t>
         </is>
       </c>
     </row>
@@ -3820,12 +3820,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars131</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>vkBvbmPN</t>
         </is>
       </c>
     </row>
@@ -3847,12 +3847,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars132</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>TZZv8PCf</t>
         </is>
       </c>
     </row>
@@ -3874,12 +3874,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars133</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>UdKrgBnS</t>
         </is>
       </c>
     </row>
@@ -3901,12 +3901,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars134</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>nykBXKBf</t>
         </is>
       </c>
     </row>
@@ -3928,12 +3928,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars135</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>ULSjHtEX</t>
         </is>
       </c>
     </row>
@@ -3955,12 +3955,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars136</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>mKCnZqjZ</t>
         </is>
       </c>
     </row>
@@ -3982,12 +3982,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars137</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>FmcqTfu8</t>
         </is>
       </c>
     </row>
@@ -4009,12 +4009,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars138</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>b5RjZAXV</t>
         </is>
       </c>
     </row>
@@ -4036,12 +4036,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars139</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>CtLxTzXs</t>
         </is>
       </c>
     </row>
@@ -4063,12 +4063,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars140</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>SnavZ3dw</t>
         </is>
       </c>
     </row>
@@ -4090,12 +4090,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars141</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>3VtHqrPN</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4117,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars142</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>nqmAR5Wg</t>
         </is>
       </c>
     </row>
@@ -4144,12 +4144,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars143</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>nQQ7NHMG</t>
         </is>
       </c>
     </row>
@@ -4171,12 +4171,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars144</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>C8DxLWTt</t>
         </is>
       </c>
     </row>
@@ -4198,12 +4198,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars145</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>D5HNmw9a</t>
         </is>
       </c>
     </row>
@@ -4225,12 +4225,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars146</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>26b6aqDt</t>
         </is>
       </c>
     </row>
@@ -4252,12 +4252,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars147</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>nmgg2Wfd</t>
         </is>
       </c>
     </row>
@@ -4279,12 +4279,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars148</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>j7c9FhsJ</t>
         </is>
       </c>
     </row>
@@ -4306,12 +4306,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars149</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>fwRwJSan</t>
         </is>
       </c>
     </row>
@@ -4333,12 +4333,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars150</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>YQCga5NN</t>
         </is>
       </c>
     </row>
@@ -4360,12 +4360,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars151</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>jg7ZHBf2</t>
         </is>
       </c>
     </row>
@@ -4387,12 +4387,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars152</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>xwzfwwQe</t>
         </is>
       </c>
     </row>
@@ -4414,12 +4414,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars153</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>mV6RyLz7</t>
         </is>
       </c>
     </row>
@@ -4441,12 +4441,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars154</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>cQRVSjkv</t>
         </is>
       </c>
     </row>
@@ -4468,12 +4468,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars155</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>qqAMfjWZ</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars156</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>q6BBxnWF</t>
         </is>
       </c>
     </row>
@@ -4522,12 +4522,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars157</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>6b8zewDn</t>
         </is>
       </c>
     </row>
@@ -4549,12 +4549,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars158</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>vJnsJECn</t>
         </is>
       </c>
     </row>
@@ -4576,12 +4576,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars159</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>KMHEXKjv</t>
         </is>
       </c>
     </row>
@@ -4603,12 +4603,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars160</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>n48zZfAB</t>
         </is>
       </c>
     </row>
@@ -4630,12 +4630,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars161</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>CPC9K8n2</t>
         </is>
       </c>
     </row>
@@ -4657,12 +4657,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars162</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>r3qjeacK</t>
         </is>
       </c>
     </row>
@@ -4684,12 +4684,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars163</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>JPu2Cpff</t>
         </is>
       </c>
     </row>
@@ -4711,12 +4711,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars164</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>fUKGWrxp</t>
         </is>
       </c>
     </row>
@@ -4738,12 +4738,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars165</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>JNfcpS8p</t>
         </is>
       </c>
     </row>
@@ -4765,12 +4765,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars166</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>BwChjk2A</t>
         </is>
       </c>
     </row>
@@ -4792,12 +4792,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars167</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>u7NfbjnE</t>
         </is>
       </c>
     </row>
@@ -4819,12 +4819,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars168</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>U9EkEXjz</t>
         </is>
       </c>
     </row>
@@ -4846,12 +4846,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars169</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>ZNFFTGYu</t>
         </is>
       </c>
     </row>
@@ -4873,12 +4873,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars170</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>sn72zAcu</t>
         </is>
       </c>
     </row>
@@ -4900,12 +4900,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars171</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>wQgxywNN</t>
         </is>
       </c>
     </row>
@@ -4927,12 +4927,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars172</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>2TE7ppUE</t>
         </is>
       </c>
     </row>
@@ -4954,12 +4954,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars173</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>LBFqyqj3</t>
         </is>
       </c>
     </row>
@@ -4981,12 +4981,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars174</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>NYRz9Ucm</t>
         </is>
       </c>
     </row>
@@ -5008,12 +5008,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars175</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>MkCXGFQw</t>
         </is>
       </c>
     </row>
@@ -5035,12 +5035,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars176</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>wNsEtnqL</t>
         </is>
       </c>
     </row>
@@ -5062,12 +5062,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars177</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>YkesPhpz</t>
         </is>
       </c>
     </row>
@@ -5089,12 +5089,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars178</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>L5hWpsyE</t>
         </is>
       </c>
     </row>
@@ -5116,12 +5116,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars179</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>PVx5X8GK</t>
         </is>
       </c>
     </row>
@@ -5143,12 +5143,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars180</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>vgdSPuNQ</t>
         </is>
       </c>
     </row>
@@ -5170,12 +5170,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars181</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>g8ChHmkz</t>
         </is>
       </c>
     </row>
@@ -5197,12 +5197,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars182</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>WFJehZTt</t>
         </is>
       </c>
     </row>
@@ -5224,12 +5224,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars183</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>cBU6bjjq</t>
         </is>
       </c>
     </row>
@@ -5251,12 +5251,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars184</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>hKjFkP7S</t>
         </is>
       </c>
     </row>
@@ -5278,12 +5278,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars185</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>xDB8bgcK</t>
         </is>
       </c>
     </row>
@@ -5305,12 +5305,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars186</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>6GDxp2sz</t>
         </is>
       </c>
     </row>
@@ -5332,12 +5332,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars187</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>LMfw2RVd</t>
         </is>
       </c>
     </row>
@@ -5359,12 +5359,12 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars188</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>N6nQs6DF</t>
         </is>
       </c>
     </row>
@@ -5386,12 +5386,12 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars189</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>F2GFEqrg</t>
         </is>
       </c>
     </row>
@@ -5413,12 +5413,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars190</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>eHhdercX</t>
         </is>
       </c>
     </row>
@@ -5440,12 +5440,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars191</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>nzFdBnvA</t>
         </is>
       </c>
     </row>
@@ -5467,12 +5467,12 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars192</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>g8LVztUC</t>
         </is>
       </c>
     </row>
@@ -5494,12 +5494,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars193</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>3FWrPH8N</t>
         </is>
       </c>
     </row>
@@ -5521,12 +5521,12 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars194</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>6wqmVMbH</t>
         </is>
       </c>
     </row>
@@ -5548,12 +5548,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars195</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>uq4Exfak</t>
         </is>
       </c>
     </row>
@@ -5575,12 +5575,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars196</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>J6ZSNjJm</t>
         </is>
       </c>
     </row>
@@ -5602,12 +5602,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars197</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>2xgy2nPM</t>
         </is>
       </c>
     </row>
@@ -5629,12 +5629,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars198</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>zgqww9Mm</t>
         </is>
       </c>
     </row>
@@ -5656,12 +5656,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars199</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>u3Qbvd23</t>
         </is>
       </c>
     </row>
@@ -5683,12 +5683,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars200</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>rwfBxwzJ</t>
         </is>
       </c>
     </row>
@@ -5710,12 +5710,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars201</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Sz7u88rL</t>
         </is>
       </c>
     </row>
@@ -5737,12 +5737,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars202</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>rBg8vuUD</t>
         </is>
       </c>
     </row>
@@ -5764,12 +5764,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars203</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>FxMqgCjn</t>
         </is>
       </c>
     </row>
@@ -5791,12 +5791,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars204</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>etf8MzLC</t>
         </is>
       </c>
     </row>
@@ -5818,12 +5818,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars205</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>CY57scXP</t>
         </is>
       </c>
     </row>
@@ -5845,12 +5845,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars206</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>8e8VNQLx</t>
         </is>
       </c>
     </row>
@@ -5872,12 +5872,12 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars207</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>SqwHEcry</t>
         </is>
       </c>
     </row>
@@ -5899,12 +5899,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars208</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>BF9TJfnj</t>
         </is>
       </c>
     </row>
@@ -5926,12 +5926,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars209</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>pbSUcUMR</t>
         </is>
       </c>
     </row>
@@ -5953,12 +5953,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars210</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>MsZp7qbH</t>
         </is>
       </c>
     </row>
@@ -5980,12 +5980,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars211</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>afQHzxwr</t>
         </is>
       </c>
     </row>
@@ -6007,12 +6007,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars212</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>mEVG7JBa</t>
         </is>
       </c>
     </row>
@@ -6034,12 +6034,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars213</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>APEbc3hw</t>
         </is>
       </c>
     </row>
@@ -6061,12 +6061,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars214</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>6GS4BtL9</t>
         </is>
       </c>
     </row>
@@ -6088,12 +6088,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars215</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>wDSakJhZ</t>
         </is>
       </c>
     </row>
@@ -6115,12 +6115,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars216</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>r8NfKWxf</t>
         </is>
       </c>
     </row>
@@ -6142,12 +6142,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars217</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>J3LUWTu5</t>
         </is>
       </c>
     </row>
@@ -6169,12 +6169,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars218</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>23qQXPPt</t>
         </is>
       </c>
     </row>
@@ -6196,12 +6196,12 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars219</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>dnxaqPwx</t>
         </is>
       </c>
     </row>
@@ -6223,12 +6223,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars220</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>nPt86hTw</t>
         </is>
       </c>
     </row>
@@ -6250,12 +6250,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars221</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>dATW64He</t>
         </is>
       </c>
     </row>
@@ -6277,12 +6277,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars222</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>VfPhQ6TU</t>
         </is>
       </c>
     </row>
@@ -6304,12 +6304,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars223</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>uFXmRWK6</t>
         </is>
       </c>
     </row>
@@ -6331,12 +6331,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars224</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>8GUnyMdz</t>
         </is>
       </c>
     </row>
@@ -6358,12 +6358,12 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars225</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>3qXqSW6w</t>
         </is>
       </c>
     </row>
@@ -6385,12 +6385,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars226</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>VBLrmzuD</t>
         </is>
       </c>
     </row>
@@ -6412,12 +6412,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars227</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>FU76Nbc9</t>
         </is>
       </c>
     </row>
@@ -6439,12 +6439,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars228</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>UqVChZ7b</t>
         </is>
       </c>
     </row>
@@ -6466,12 +6466,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars229</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>mZVHjabJ</t>
         </is>
       </c>
     </row>
@@ -6493,12 +6493,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars230</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>JSeqFUCK</t>
         </is>
       </c>
     </row>
@@ -6520,12 +6520,12 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars231</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>PUtjJq8E</t>
         </is>
       </c>
     </row>
@@ -6547,12 +6547,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars232</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>UvXu6Q5y</t>
         </is>
       </c>
     </row>
@@ -6574,12 +6574,12 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars233</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>QNYA7eJJ</t>
         </is>
       </c>
     </row>
@@ -6601,12 +6601,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars234</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>c6frqdUR</t>
         </is>
       </c>
     </row>
@@ -6628,12 +6628,12 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars235</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>bVzBbawD</t>
         </is>
       </c>
     </row>
@@ -6655,12 +6655,12 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars236</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>SAptAG2r</t>
         </is>
       </c>
     </row>
@@ -6682,12 +6682,12 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars237</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>q89UZC4m</t>
         </is>
       </c>
     </row>
@@ -6709,12 +6709,12 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars238</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>CzUrWFGt</t>
         </is>
       </c>
     </row>
@@ -6736,12 +6736,12 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars239</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>FwcZZDpx</t>
         </is>
       </c>
     </row>
@@ -6763,12 +6763,12 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars240</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>88YAkHPj</t>
         </is>
       </c>
     </row>
@@ -6790,12 +6790,12 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars241</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>wEc4kd5K</t>
         </is>
       </c>
     </row>
@@ -6817,12 +6817,12 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars242</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>xHgHuURL</t>
         </is>
       </c>
     </row>
@@ -6844,12 +6844,12 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars243</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>W2qSpjvm</t>
         </is>
       </c>
     </row>
@@ -6871,12 +6871,12 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars244</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>n6UeYT6V</t>
         </is>
       </c>
     </row>
@@ -6898,12 +6898,12 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars245</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>9vXnENgg</t>
         </is>
       </c>
     </row>
@@ -6925,12 +6925,12 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars246</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Q8ppZWVD</t>
         </is>
       </c>
     </row>
@@ -6952,12 +6952,12 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars247</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>95uFGkrw</t>
         </is>
       </c>
     </row>
@@ -6979,12 +6979,12 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars248</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>CZeEAyBs</t>
         </is>
       </c>
     </row>
@@ -7006,12 +7006,12 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars249</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>5D8AMyQF</t>
         </is>
       </c>
     </row>
@@ -7033,12 +7033,12 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars250</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>nfnGm9tp</t>
         </is>
       </c>
     </row>
@@ -7060,12 +7060,12 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars251</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Y9Q6PZcu</t>
         </is>
       </c>
     </row>
@@ -7087,12 +7087,12 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars252</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>smcHKty4</t>
         </is>
       </c>
     </row>
@@ -7114,12 +7114,12 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars253</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>bbEMAWdb</t>
         </is>
       </c>
     </row>
@@ -7141,12 +7141,12 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars254</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>FbMtZyjF</t>
         </is>
       </c>
     </row>
@@ -7168,12 +7168,12 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars255</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>DD8GX7dF</t>
         </is>
       </c>
     </row>
@@ -7195,12 +7195,12 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars256</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>QJmkyUWf</t>
         </is>
       </c>
     </row>
@@ -7222,12 +7222,12 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars257</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Z4RNmVRh</t>
         </is>
       </c>
     </row>
@@ -7249,12 +7249,12 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars258</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>UvgvzqLv</t>
         </is>
       </c>
     </row>
@@ -7276,12 +7276,12 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars259</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Bp45vUuQ</t>
         </is>
       </c>
     </row>
@@ -7303,12 +7303,12 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars260</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>jYpYTKTF</t>
         </is>
       </c>
     </row>
@@ -7330,12 +7330,12 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars261</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>HuTh8XBs</t>
         </is>
       </c>
     </row>
@@ -7357,12 +7357,12 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars262</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>kLa75bdh</t>
         </is>
       </c>
     </row>
@@ -7384,12 +7384,12 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars263</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>j5cVn7sU</t>
         </is>
       </c>
     </row>
@@ -7411,12 +7411,12 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars264</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>b5pLxWM5</t>
         </is>
       </c>
     </row>
@@ -7438,12 +7438,12 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars265</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>4UJ7Lmnx</t>
         </is>
       </c>
     </row>
@@ -7465,12 +7465,12 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars266</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>gs6KttmA</t>
         </is>
       </c>
     </row>
@@ -7492,12 +7492,12 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars267</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>FC6wJRdm</t>
         </is>
       </c>
     </row>
@@ -7519,12 +7519,12 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars268</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>MfNqBSHL</t>
         </is>
       </c>
     </row>
@@ -7546,12 +7546,12 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars269</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>HreSQtPy</t>
         </is>
       </c>
     </row>
@@ -7573,12 +7573,12 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars270</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>G7tWTWff</t>
         </is>
       </c>
     </row>
@@ -7600,12 +7600,12 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars271</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>XrtBT3yy</t>
         </is>
       </c>
     </row>
@@ -7627,12 +7627,12 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars272</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>5kgChyUS</t>
         </is>
       </c>
     </row>
@@ -7654,12 +7654,12 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars273</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>NbNUKR3e</t>
         </is>
       </c>
     </row>
@@ -7681,12 +7681,12 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars274</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>QFCR4QVH</t>
         </is>
       </c>
     </row>
@@ -7708,12 +7708,12 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars275</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>pbLWSsRU</t>
         </is>
       </c>
     </row>
@@ -7735,12 +7735,12 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars276</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>whN9gPj9</t>
         </is>
       </c>
     </row>
@@ -7762,12 +7762,12 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars277</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>fucJD7gL</t>
         </is>
       </c>
     </row>
@@ -7789,12 +7789,12 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars278</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>TnQTyALK</t>
         </is>
       </c>
     </row>
@@ -7816,12 +7816,12 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars279</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>9PwNPA29</t>
         </is>
       </c>
     </row>
@@ -7843,12 +7843,12 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars280</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>fmnjW5rt</t>
         </is>
       </c>
     </row>
@@ -7870,12 +7870,12 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars281</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>5ZDpjNXX</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7897,12 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars282</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Te8ybJRt</t>
         </is>
       </c>
     </row>
@@ -7924,12 +7924,12 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars283</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>t79dqkrV</t>
         </is>
       </c>
     </row>
@@ -7951,12 +7951,12 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars284</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>LBVV7fgJ</t>
         </is>
       </c>
     </row>
@@ -7978,12 +7978,12 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars285</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>VRUnSwLm</t>
         </is>
       </c>
     </row>
@@ -8005,12 +8005,12 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars286</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>pYqxjYTK</t>
         </is>
       </c>
     </row>
@@ -8032,12 +8032,12 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars287</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Ry7q82Ld</t>
         </is>
       </c>
     </row>
@@ -8059,12 +8059,12 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars288</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>wQmjhjZ7</t>
         </is>
       </c>
     </row>
@@ -8086,12 +8086,12 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars289</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>7Sy3nLuz</t>
         </is>
       </c>
     </row>
@@ -8113,12 +8113,12 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars290</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>QqJZU5WV</t>
         </is>
       </c>
     </row>
@@ -8140,12 +8140,12 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars291</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>EuzvZ3hv</t>
         </is>
       </c>
     </row>
@@ -8167,12 +8167,12 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars292</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>vrvQxMGS</t>
         </is>
       </c>
     </row>
@@ -8194,12 +8194,12 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars293</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Arb5269W</t>
         </is>
       </c>
     </row>
@@ -8221,12 +8221,12 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars294</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>rv9b9kdX</t>
         </is>
       </c>
     </row>
@@ -8248,12 +8248,12 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars295</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>t5Czj2Cm</t>
         </is>
       </c>
     </row>
@@ -8275,12 +8275,12 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars296</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>ShPrSRsQ</t>
         </is>
       </c>
     </row>
@@ -8302,12 +8302,12 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars297</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>zzzpRDJW</t>
         </is>
       </c>
     </row>
@@ -8329,12 +8329,12 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars298</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>9gfWbEc8</t>
         </is>
       </c>
     </row>
@@ -8356,12 +8356,12 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars299</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>4c9wKbjs</t>
         </is>
       </c>
     </row>
@@ -8383,12 +8383,12 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars300</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>tmpgqVQY</t>
         </is>
       </c>
     </row>
@@ -8410,12 +8410,12 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars301</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Ata2zYbR</t>
         </is>
       </c>
     </row>
@@ -8437,12 +8437,12 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars302</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>uTJQ3uGw</t>
         </is>
       </c>
     </row>
@@ -8464,12 +8464,12 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars303</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>vHzFj7LG</t>
         </is>
       </c>
     </row>
@@ -8491,12 +8491,12 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars304</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>8ALQYe9x</t>
         </is>
       </c>
     </row>
@@ -8518,12 +8518,12 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars305</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>rEzbhQZj</t>
         </is>
       </c>
     </row>
@@ -8545,12 +8545,12 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars306</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>FkdGKDVF</t>
         </is>
       </c>
     </row>
@@ -8572,12 +8572,12 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars307</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>WpZtEjrh</t>
         </is>
       </c>
     </row>
@@ -8599,12 +8599,12 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars308</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>c4QCLsvW</t>
         </is>
       </c>
     </row>
@@ -8626,12 +8626,12 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars309</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>tGjU7gZc</t>
         </is>
       </c>
     </row>
@@ -8653,12 +8653,12 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars310</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>tpeSBJjF</t>
         </is>
       </c>
     </row>
@@ -8680,12 +8680,12 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars311</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>wyTG9Qzb</t>
         </is>
       </c>
     </row>
@@ -8707,12 +8707,12 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars312</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>G7PCLxUU</t>
         </is>
       </c>
     </row>
@@ -8734,12 +8734,12 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars313</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>TrFJ9HxD</t>
         </is>
       </c>
     </row>
@@ -8761,12 +8761,12 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars314</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>4ynMmjD7</t>
         </is>
       </c>
     </row>
@@ -8788,12 +8788,12 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars315</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>mcmTZA4F</t>
         </is>
       </c>
     </row>
@@ -8815,12 +8815,12 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars316</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>zpxXSUtT</t>
         </is>
       </c>
     </row>
@@ -8842,12 +8842,12 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars317</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>x3ajYXVy</t>
         </is>
       </c>
     </row>
@@ -8869,12 +8869,12 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars318</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>H5HEzmTU</t>
         </is>
       </c>
     </row>
@@ -8896,12 +8896,12 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars319</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>CU8BsKEU</t>
         </is>
       </c>
     </row>
@@ -8923,12 +8923,12 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars320</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>YmdALhFT</t>
         </is>
       </c>
     </row>
@@ -8950,12 +8950,12 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars321</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>m6W3324h</t>
         </is>
       </c>
     </row>
@@ -8977,12 +8977,12 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars322</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>dDFd3PT3</t>
         </is>
       </c>
     </row>
@@ -9004,12 +9004,12 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars323</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>aj7kRPvy</t>
         </is>
       </c>
     </row>
@@ -9031,12 +9031,12 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars324</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Ht6q6ETT</t>
         </is>
       </c>
     </row>
@@ -9058,12 +9058,12 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars325</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>4aMTJS6G</t>
         </is>
       </c>
     </row>
@@ -9085,12 +9085,12 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars326</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>JQ3x8YN5</t>
         </is>
       </c>
     </row>
@@ -9112,12 +9112,12 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars327</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>sYBXJvd5</t>
         </is>
       </c>
     </row>
@@ -9139,12 +9139,12 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars328</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Et5CWhgL</t>
         </is>
       </c>
     </row>
@@ -9166,12 +9166,12 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars329</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>vw7zsk9A</t>
         </is>
       </c>
     </row>
@@ -9193,12 +9193,12 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars330</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>8vyPaKPn</t>
         </is>
       </c>
     </row>
@@ -9220,12 +9220,12 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars331</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>gPFhPA7u</t>
         </is>
       </c>
     </row>
@@ -9247,12 +9247,12 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars332</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>AFskdCK6</t>
         </is>
       </c>
     </row>
@@ -9274,12 +9274,12 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars333</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>zzsHJAbG</t>
         </is>
       </c>
     </row>
@@ -9301,12 +9301,12 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars334</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>ysvQYZ6p</t>
         </is>
       </c>
     </row>
@@ -9328,12 +9328,12 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars335</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>HwQ3aEUJ</t>
         </is>
       </c>
     </row>
@@ -9355,12 +9355,12 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars336</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>8YjZYqZX</t>
         </is>
       </c>
     </row>
@@ -9382,12 +9382,12 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars337</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>5CPfbwT4</t>
         </is>
       </c>
     </row>
@@ -9409,12 +9409,12 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars338</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>TMSUyWU7</t>
         </is>
       </c>
     </row>
@@ -9436,12 +9436,12 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars339</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>cKqqmqGG</t>
         </is>
       </c>
     </row>
@@ -9463,12 +9463,12 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars340</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>9DxbKAgH</t>
         </is>
       </c>
     </row>
@@ -9490,12 +9490,12 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars341</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>sSNm5aXt</t>
         </is>
       </c>
     </row>
@@ -9517,12 +9517,12 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars342</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>CREM6F8g</t>
         </is>
       </c>
     </row>
@@ -9544,12 +9544,12 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars343</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Hhr5qtYx</t>
         </is>
       </c>
     </row>
@@ -9571,12 +9571,12 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars344</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>JXxmLpth</t>
         </is>
       </c>
     </row>
@@ -9598,12 +9598,12 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars345</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>2JxhAnes</t>
         </is>
       </c>
     </row>
@@ -9625,12 +9625,12 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars346</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>QjtempQh</t>
         </is>
       </c>
     </row>
@@ -9652,12 +9652,12 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars347</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>PGsAZ9e9</t>
         </is>
       </c>
     </row>
@@ -9679,12 +9679,12 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars348</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>HYkT8mPc</t>
         </is>
       </c>
     </row>
@@ -9706,12 +9706,12 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars349</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>bBg4wnZN</t>
         </is>
       </c>
     </row>
@@ -9733,12 +9733,12 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars350</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>TEcQAZSw</t>
         </is>
       </c>
     </row>
@@ -9760,12 +9760,12 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars351</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>ZJE3uEEa</t>
         </is>
       </c>
     </row>
@@ -9787,12 +9787,12 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars352</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>vbn7nKUc</t>
         </is>
       </c>
     </row>
@@ -9814,12 +9814,12 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars353</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>gGYrCRu2</t>
         </is>
       </c>
     </row>
@@ -9841,12 +9841,12 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars354</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>TtstxvRW</t>
         </is>
       </c>
     </row>
@@ -9868,12 +9868,12 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars355</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>sQj9q6yx</t>
         </is>
       </c>
     </row>
@@ -9895,12 +9895,12 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars356</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>syBjXmfC</t>
         </is>
       </c>
     </row>
@@ -9922,12 +9922,12 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars357</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>fU9cwCfy</t>
         </is>
       </c>
     </row>
@@ -9949,12 +9949,12 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars358</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>kAg7Sjnw</t>
         </is>
       </c>
     </row>
@@ -9976,12 +9976,12 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars359</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>qTe46buH</t>
         </is>
       </c>
     </row>
@@ -10003,12 +10003,12 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars360</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>zQFRW3aN</t>
         </is>
       </c>
     </row>
@@ -10030,12 +10030,12 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars361</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>GNC9aZm6</t>
         </is>
       </c>
     </row>
@@ -10057,12 +10057,12 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars362</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>GF5vpCff</t>
         </is>
       </c>
     </row>
@@ -10084,12 +10084,12 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars363</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>AWVpZf2k</t>
         </is>
       </c>
     </row>
@@ -10111,12 +10111,12 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars364</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Q6YxnvEk</t>
         </is>
       </c>
     </row>
@@ -10138,12 +10138,12 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars365</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>2gCdGJX8</t>
         </is>
       </c>
     </row>
@@ -10165,12 +10165,12 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars366</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>dPEnWMFA</t>
         </is>
       </c>
     </row>
@@ -10192,12 +10192,12 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars367</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>FK8yMuV2</t>
         </is>
       </c>
     </row>
@@ -10219,12 +10219,12 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars368</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>dm5jw3Nf</t>
         </is>
       </c>
     </row>
@@ -10246,12 +10246,12 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars369</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>hmC4UFpz</t>
         </is>
       </c>
     </row>
@@ -10273,12 +10273,12 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars370</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>gxYkRjze</t>
         </is>
       </c>
     </row>
@@ -10300,12 +10300,12 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars371</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>YmdzL7BP</t>
         </is>
       </c>
     </row>
@@ -10327,12 +10327,12 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars372</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>kDXkRbkC</t>
         </is>
       </c>
     </row>
@@ -10354,12 +10354,12 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars373</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>qsBHaCfK</t>
         </is>
       </c>
     </row>
@@ -10381,12 +10381,12 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars374</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>BJPPZUJJ</t>
         </is>
       </c>
     </row>
@@ -10408,12 +10408,12 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars375</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>uQPz63ev</t>
         </is>
       </c>
     </row>
@@ -10435,12 +10435,12 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars376</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>rygWWm7E</t>
         </is>
       </c>
     </row>
@@ -10462,12 +10462,12 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars377</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>UJeXRJFQ</t>
         </is>
       </c>
     </row>
@@ -10489,12 +10489,12 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars378</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>f3PFj5Lk</t>
         </is>
       </c>
     </row>
@@ -10516,12 +10516,12 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars379</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>Mm8rDcgF</t>
         </is>
       </c>
     </row>
@@ -10543,12 +10543,12 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars380</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>MQbbmXqE</t>
         </is>
       </c>
     </row>
@@ -10570,12 +10570,12 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars381</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>EpvaBz8M</t>
         </is>
       </c>
     </row>
@@ -10597,12 +10597,12 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars382</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>jjTXcFSZ</t>
         </is>
       </c>
     </row>
@@ -10624,12 +10624,12 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars383</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>DrqhBTUa</t>
         </is>
       </c>
     </row>
@@ -10651,12 +10651,12 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars384</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>XzudA2vp</t>
         </is>
       </c>
     </row>
@@ -10678,12 +10678,12 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars385</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>jPaXGjvX</t>
         </is>
       </c>
     </row>
@@ -10705,12 +10705,12 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars386</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>dPME7s2E</t>
         </is>
       </c>
     </row>
@@ -10732,12 +10732,12 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars387</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>gAkNSmWH</t>
         </is>
       </c>
     </row>
@@ -10759,12 +10759,12 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars388</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>d6HxqxhH</t>
         </is>
       </c>
     </row>
@@ -10786,12 +10786,12 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars389</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>xAVC986Y</t>
         </is>
       </c>
     </row>
@@ -10813,12 +10813,12 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars390</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>m2aqbQPb</t>
         </is>
       </c>
     </row>
@@ -10840,12 +10840,12 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars391</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>weAUTJ4F</t>
         </is>
       </c>
     </row>
@@ -10867,12 +10867,12 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars392</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>P4Veqx4v</t>
         </is>
       </c>
     </row>
@@ -10894,12 +10894,12 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars393</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>jbSn42BB</t>
         </is>
       </c>
     </row>
@@ -10921,12 +10921,12 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars394</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>gtGKAayS</t>
         </is>
       </c>
     </row>
@@ -10948,12 +10948,12 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars395</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>u2gHqW3z</t>
         </is>
       </c>
     </row>
@@ -10975,12 +10975,12 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars396</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>rdSLftdY</t>
         </is>
       </c>
     </row>
@@ -11002,12 +11002,12 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Haha</t>
+          <t>mars397</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Hihi</t>
+          <t>GsquarKt</t>
         </is>
       </c>
     </row>
